--- a/Formalitäten/Arbeitsstunden.xlsx
+++ b/Formalitäten/Arbeitsstunden.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mandy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mandy\Documents\GitHub\spukschloss\Formalitäten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Christoph Reitmeier" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>Stundenabrechnung GD2 - Projekt Spukschloss</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>/</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>4 Skizzen handelnder Figuren (Geist/NPCs)
@@ -161,28 +158,7 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +167,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -511,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,171 +528,161 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2"/>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="11" t="s">
-        <v>20</v>
+      <c r="I15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="J15">
         <f>SUM(J6:K13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
@@ -712,6 +699,16 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -742,34 +739,34 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
@@ -782,13 +779,13 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -797,13 +794,13 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -812,13 +809,13 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -827,13 +824,13 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -842,13 +839,13 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -857,13 +854,13 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -872,13 +869,13 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -887,8 +884,8 @@
       <c r="K13" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="11" t="s">
-        <v>20</v>
+      <c r="I15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="J15">
         <f>SUM(J6:K13)</f>
@@ -897,32 +894,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -933,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -953,30 +950,30 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -993,13 +990,13 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1008,13 +1005,13 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1023,13 +1020,13 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1038,13 +1035,13 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -1053,13 +1050,13 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1068,13 +1065,13 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1083,13 +1080,13 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1098,8 +1095,8 @@
       <c r="K13" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="11" t="s">
-        <v>20</v>
+      <c r="I15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="J15">
         <f>SUM(J6:K13)</f>
@@ -1108,32 +1105,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Formalitäten/Arbeitsstunden.xlsx
+++ b/Formalitäten/Arbeitsstunden.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>Stundenabrechnung GD2 - Projekt Spukschloss</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>erster Test Wegsystem (programmiert), Zusammensetzung der Grafiken Hotelbesitzer, Geist, Hotelgast zum Spritesheet</t>
+  </si>
+  <si>
+    <t>Ausarbeitung WPS, Fertigstellung des 2. Meilensteins (bis zum 3. Meilensteintermin)</t>
   </si>
 </sst>
 </file>
@@ -167,35 +170,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -207,8 +183,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,7 +610,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -617,34 +623,34 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="11" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
@@ -657,7 +663,7 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -676,7 +682,7 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6"/>
@@ -691,7 +697,7 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="6"/>
@@ -706,7 +712,7 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="6"/>
@@ -721,7 +727,7 @@
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6"/>
@@ -736,7 +742,7 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="6"/>
@@ -751,7 +757,7 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="6"/>
@@ -766,7 +772,7 @@
       <c r="K13" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J15">
@@ -776,6 +782,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:K13"/>
@@ -785,23 +808,6 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -822,7 +828,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -835,158 +841,158 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="11" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="4">
+      <c r="J6" s="11">
         <v>4</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="4">
+      <c r="J7" s="11">
         <v>5</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J15">
@@ -996,6 +1002,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:K13"/>
@@ -1005,23 +1028,6 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -1033,7 +1039,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1050,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1057,163 +1063,184 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="11" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="11"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="4">
+      <c r="J6" s="11">
         <v>3</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="11">
+        <v>4</v>
+      </c>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J15">
         <f>SUM(J6:K13)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:K10"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:K13"/>
@@ -1223,23 +1250,6 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
